--- a/results/mp/deberta/corona/confidence/42/stop-words-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-0.15/avg_0.004_scores.xlsx
@@ -88,10 +88,10 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>support</t>
   </si>
   <si>
     <t>heroes</t>
@@ -991,25 +991,25 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6594827586206896</v>
+        <v>0.6534653465346535</v>
       </c>
       <c r="L16">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="M16">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="N16">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O16">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1017,25 +1017,25 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6534653465346535</v>
+        <v>0.6401673640167364</v>
       </c>
       <c r="L17">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="M17">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="N17">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>35</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1121,25 +1121,25 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5213414634146342</v>
+        <v>0.5029411764705882</v>
       </c>
       <c r="L21">
         <v>171</v>
       </c>
       <c r="M21">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="N21">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="10:17">
